--- a/SampleDataWithAircraftType.xlsx
+++ b/SampleDataWithAircraftType.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDocs\AcademicsTUDelft\Semester 1\AE4441-16\Project\CPlex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lunap\OneDrive\Ambiente de Trabalho\1st quarter\Operations optimisation\Operations_assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EFD35C4-E126-4F3F-B8D0-BF921D077A40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{1EFD35C4-E126-4F3F-B8D0-BF921D077A40}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{D0C662F7-1D7E-4E50-A9FE-86DCAA309816}"/>
   <bookViews>
-    <workbookView xWindow="2328" yWindow="1908" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Flight number</t>
   </si>
@@ -73,6 +73,21 @@
   </si>
   <si>
     <t>B737</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -394,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -408,7 +423,7 @@
     <col min="4" max="4" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,8 +439,11 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -443,8 +461,11 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -462,8 +483,11 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -481,8 +505,11 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -500,8 +527,11 @@
       <c r="E5" t="s">
         <v>13</v>
       </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -518,6 +548,9 @@
       </c>
       <c r="E6" t="s">
         <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/SampleDataWithAircraftType.xlsx
+++ b/SampleDataWithAircraftType.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lunap\OneDrive\Ambiente de Trabalho\1st quarter\Operations optimisation\Operations_assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\Operations_assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{1EFD35C4-E126-4F3F-B8D0-BF921D077A40}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{D0C662F7-1D7E-4E50-A9FE-86DCAA309816}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FCD6DF-D037-4A57-B648-A600150AC842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7230" yWindow="1140" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
   <si>
     <t>Flight number</t>
   </si>
@@ -88,6 +90,135 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>A670</t>
+  </si>
+  <si>
+    <t>11:18</t>
+  </si>
+  <si>
+    <t>14:18</t>
+  </si>
+  <si>
+    <t>R991</t>
+  </si>
+  <si>
+    <t>06:46</t>
+  </si>
+  <si>
+    <t>12:55</t>
+  </si>
+  <si>
+    <t>F257</t>
+  </si>
+  <si>
+    <t>09:19</t>
+  </si>
+  <si>
+    <t>16:34</t>
+  </si>
+  <si>
+    <t>L563</t>
+  </si>
+  <si>
+    <t>15:16</t>
+  </si>
+  <si>
+    <t>00:50</t>
+  </si>
+  <si>
+    <t>A161</t>
+  </si>
+  <si>
+    <t>13:13</t>
+  </si>
+  <si>
+    <t>20:23</t>
+  </si>
+  <si>
+    <t>F809</t>
+  </si>
+  <si>
+    <t>06:17</t>
+  </si>
+  <si>
+    <t>08:29</t>
+  </si>
+  <si>
+    <t>A890</t>
+  </si>
+  <si>
+    <t>12:29</t>
+  </si>
+  <si>
+    <t>14:13</t>
+  </si>
+  <si>
+    <t>L701</t>
+  </si>
+  <si>
+    <t>14:02</t>
+  </si>
+  <si>
+    <t>22:41</t>
+  </si>
+  <si>
+    <t>B787</t>
+  </si>
+  <si>
+    <t>F868</t>
+  </si>
+  <si>
+    <t>06:52</t>
+  </si>
+  <si>
+    <t>11:40</t>
+  </si>
+  <si>
+    <t>R740</t>
+  </si>
+  <si>
+    <t>09:33</t>
+  </si>
+  <si>
+    <t>19:05</t>
+  </si>
+  <si>
+    <t>F825</t>
+  </si>
+  <si>
+    <t>14:12</t>
+  </si>
+  <si>
+    <t>23:12</t>
+  </si>
+  <si>
+    <t>A509</t>
+  </si>
+  <si>
+    <t>12:32</t>
+  </si>
+  <si>
+    <t>14:31</t>
+  </si>
+  <si>
+    <t>A494</t>
+  </si>
+  <si>
+    <t>12:28</t>
+  </si>
+  <si>
+    <t>20:17</t>
+  </si>
+  <si>
+    <t>A249</t>
+  </si>
+  <si>
+    <t>11:20</t>
+  </si>
+  <si>
+    <t>17:10</t>
   </si>
 </sst>
 </file>
@@ -131,7 +262,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -409,21 +540,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.5234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.89453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7890625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -465,7 +596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -487,7 +618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -509,7 +640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -531,7 +662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -550,6 +681,286 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>350</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>350</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>350</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>350</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11">
+        <v>350</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <v>350</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <v>350</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14">
+        <v>350</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15">
+        <v>350</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16">
+        <v>350</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17">
+        <v>350</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18">
+        <v>350</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19">
+        <v>350</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20">
+        <v>350</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
         <v>18</v>
       </c>
     </row>
